--- a/data/trans_dic/P69$dolorCabeza-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P69$dolorCabeza-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.2438808319857663</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.168308587844953</v>
+        <v>0.1683085878449531</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.2638346181358868</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07585847594093036</v>
+        <v>0.0774295108013542</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1639040225324719</v>
+        <v>0.167410877491201</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1459907979948622</v>
+        <v>0.1394302094368013</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07253773930144183</v>
+        <v>0.07729049006267939</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1355356530289603</v>
+        <v>0.1254793843744142</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3129853071388151</v>
+        <v>0.3044623020212622</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.269707877317545</v>
+        <v>0.2498994024069715</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1897840445101347</v>
+        <v>0.199962979789481</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1156089540332416</v>
+        <v>0.1133576386402279</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2425265478736893</v>
+        <v>0.2422474103451601</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.217985304491279</v>
+        <v>0.2134976612771981</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1524473843362168</v>
+        <v>0.1474504564585636</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2579656103787461</v>
+        <v>0.2426039551936252</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3749392849339636</v>
+        <v>0.3745004209766161</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3912435642466543</v>
+        <v>0.3906833625321833</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3486460527616771</v>
+        <v>0.3314925348353799</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.450537384095817</v>
+        <v>0.4501059326390027</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6673442409764093</v>
+        <v>0.678610767240826</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6443372765805169</v>
+        <v>0.6234138858187813</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4086985659144267</v>
+        <v>0.4074725547543828</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2711727340841309</v>
+        <v>0.2670901555065517</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4314657346566753</v>
+        <v>0.4411180584893442</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4256957711612988</v>
+        <v>0.4205516835600965</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3245306881574582</v>
+        <v>0.3122452833340205</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.2130135497077693</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2791654960018679</v>
+        <v>0.279165496001868</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.3962315787772716</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.224563914206566</v>
+        <v>0.2142132822031005</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1532287531388794</v>
+        <v>0.1593735830005216</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1343609172253987</v>
+        <v>0.1397826133006553</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1873697713682454</v>
+        <v>0.1833537467714887</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2608614578585511</v>
+        <v>0.2653366745493084</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3618545843385691</v>
+        <v>0.3640438639677712</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2035288523745282</v>
+        <v>0.2165243025904424</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2530459707761614</v>
+        <v>0.2499430302057327</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2555232201506495</v>
+        <v>0.2546521360895583</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2699766408580438</v>
+        <v>0.2670424940885336</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1822879263734485</v>
+        <v>0.1879147785219951</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2425357483136934</v>
+        <v>0.23400884010622</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3827879861115244</v>
+        <v>0.3862558657505129</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3361771753468424</v>
+        <v>0.3428140879076345</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3135836814455882</v>
+        <v>0.3198629725863179</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3847610162574653</v>
+        <v>0.3819115855759216</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5306004601224191</v>
+        <v>0.5331955330397447</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.624519885527663</v>
+        <v>0.6192455218339736</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4667409001279502</v>
+        <v>0.4751548764746272</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4107677192241859</v>
+        <v>0.4168176563165144</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3876989614070956</v>
+        <v>0.3894352369441939</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4206025911008592</v>
+        <v>0.4222775261014242</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3289310894381864</v>
+        <v>0.3284119715749724</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.374297766188627</v>
+        <v>0.3662340529756301</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.4257897773580271</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.4023094739080434</v>
+        <v>0.4023094739080436</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.3519418647137086</v>
@@ -969,7 +969,7 @@
         <v>0.3500799527971049</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.3141292211576388</v>
+        <v>0.3141292211576387</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2178900952113592</v>
+        <v>0.2116427457597561</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2025573070408454</v>
+        <v>0.2063193322051315</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2246982471384859</v>
+        <v>0.2178410858539277</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1237027257209881</v>
+        <v>0.1256704028180304</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3157093651802024</v>
+        <v>0.319331153197115</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2036209410433392</v>
+        <v>0.1971227086819039</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3060429059290658</v>
+        <v>0.3002019568303843</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3006186008285893</v>
+        <v>0.3083661934067409</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2770617919296875</v>
+        <v>0.2746438585639511</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2306571177948466</v>
+        <v>0.2367470559491359</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.275521142006537</v>
+        <v>0.2807299533343215</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2426238310330964</v>
+        <v>0.2394431591536949</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4088142521407209</v>
+        <v>0.4125168685408733</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.431104695350568</v>
+        <v>0.4170358033489411</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.399810240185178</v>
+        <v>0.4020202894843894</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3661118922760714</v>
+        <v>0.3651832638605929</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6069050110548418</v>
+        <v>0.6076145959007134</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4531934908537398</v>
+        <v>0.4512815441974078</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5492420820872496</v>
+        <v>0.5539788632047236</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.516982885195567</v>
+        <v>0.5140683140273009</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4393898613061576</v>
+        <v>0.4427575508231897</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3977415674771861</v>
+        <v>0.3972619901972064</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4263331127032974</v>
+        <v>0.4286916094760702</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4081532436496551</v>
+        <v>0.4022374725327818</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.461862695785634</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.3229011805619396</v>
+        <v>0.3229011805619397</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.409048617780818</v>
@@ -1105,7 +1105,7 @@
         <v>0.3792634453602364</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.3144779854747316</v>
+        <v>0.3144779854747317</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3056712423559437</v>
+        <v>0.300778639459398</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1522030685870766</v>
+        <v>0.149232095655208</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2212698742126263</v>
+        <v>0.2159611563132651</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2214830646729682</v>
+        <v>0.22838638683141</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3414949828438185</v>
+        <v>0.3378466131482478</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2404303947820829</v>
+        <v>0.231612453460458</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3345438462818879</v>
+        <v>0.3330351782367691</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2499135934295292</v>
+        <v>0.241879455219393</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3481770407672216</v>
+        <v>0.3434075801636676</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2207138203076189</v>
+        <v>0.2096074156645354</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3054750941370744</v>
+        <v>0.3053623424047571</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2538128994738661</v>
+        <v>0.2612821577804006</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4721442576029314</v>
+        <v>0.4757319649972093</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3517725358973916</v>
+        <v>0.338268955181204</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4323760972413902</v>
+        <v>0.4329992742357471</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4050476278618466</v>
+        <v>0.4028262273510312</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5532505315578515</v>
+        <v>0.5485297665285112</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.480467059788399</v>
+        <v>0.4947589912417608</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5873244925969731</v>
+        <v>0.5855047953006292</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4153813405655484</v>
+        <v>0.4129824478517838</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4820826650863947</v>
+        <v>0.4720690949405694</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3804679053864131</v>
+        <v>0.3688631384293625</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4617064381595558</v>
+        <v>0.4689240239154114</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3766067451973799</v>
+        <v>0.3847449097739112</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.3271283062586951</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.293015993480899</v>
+        <v>0.2930159934808991</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.258390417246937</v>
+        <v>0.2584916572404595</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2149996241789227</v>
+        <v>0.2138618780434373</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2273823669044837</v>
+        <v>0.225529742196607</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2027387465668608</v>
+        <v>0.2041539082889035</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3497614453508551</v>
+        <v>0.3481299055301779</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3423844655941635</v>
+        <v>0.3411592332383934</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3497218498504102</v>
+        <v>0.349145205809814</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2915577825683068</v>
+        <v>0.2916600738202063</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2998622001105888</v>
+        <v>0.2982409999237129</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2815235292444955</v>
+        <v>0.2723327151114282</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2871105939474294</v>
+        <v>0.2846950736345913</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.255794784493149</v>
+        <v>0.2623504242230487</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3418639923984502</v>
+        <v>0.3434533710114525</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3163144554004514</v>
+        <v>0.3126409501419791</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3251467161930136</v>
+        <v>0.3249829150990406</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3125912677025443</v>
+        <v>0.3086932578046629</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4770271555561956</v>
+        <v>0.4774190371140655</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.484826962223694</v>
+        <v>0.4815307282467947</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.484033545160492</v>
+        <v>0.487562230691983</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3837390585694817</v>
+        <v>0.3800073746053139</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3714170716350577</v>
+        <v>0.371103540515008</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.362785042852672</v>
+        <v>0.3611093364895259</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3685971359134208</v>
+        <v>0.3687419514560318</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3265617220415276</v>
+        <v>0.3294420209424515</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6018</v>
+        <v>6143</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>12552</v>
+        <v>12820</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7844</v>
+        <v>7491</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>5444</v>
+        <v>5800</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4370</v>
+        <v>4046</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>10724</v>
+        <v>10431</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>8068</v>
+        <v>7476</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>11353</v>
+        <v>11962</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>12899</v>
+        <v>12648</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>26882</v>
+        <v>26851</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>18233</v>
+        <v>17857</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>20560</v>
+        <v>19886</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>20465</v>
+        <v>19246</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>28713</v>
+        <v>28679</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>21020</v>
+        <v>20990</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>26164</v>
+        <v>24877</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>14526</v>
+        <v>14512</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>22865</v>
+        <v>23251</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>19275</v>
+        <v>18649</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>24449</v>
+        <v>24375</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>30255</v>
+        <v>29800</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>47825</v>
+        <v>48894</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>35606</v>
+        <v>35176</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>43768</v>
+        <v>42111</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>32782</v>
+        <v>31271</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>13910</v>
+        <v>14468</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13031</v>
+        <v>13557</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>24784</v>
+        <v>24253</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>13773</v>
+        <v>14009</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>22977</v>
+        <v>23116</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>11306</v>
+        <v>12028</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>26829</v>
+        <v>26500</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>50792</v>
+        <v>50619</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>41651</v>
+        <v>41198</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>27805</v>
+        <v>28664</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>57796</v>
+        <v>55764</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>55880</v>
+        <v>56386</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>30517</v>
+        <v>31120</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>30413</v>
+        <v>31022</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>50894</v>
+        <v>50517</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>28014</v>
+        <v>28151</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>39656</v>
+        <v>39321</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>25928</v>
+        <v>26396</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>43552</v>
+        <v>44194</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>77066</v>
+        <v>77411</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>64889</v>
+        <v>65147</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>50174</v>
+        <v>50094</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>89195</v>
+        <v>87274</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>23956</v>
+        <v>23269</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>16115</v>
+        <v>16414</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>24702</v>
+        <v>23948</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>8324</v>
+        <v>8456</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>14691</v>
+        <v>14859</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>10788</v>
+        <v>10443</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>19815</v>
+        <v>19437</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>21258</v>
+        <v>21805</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>43354</v>
+        <v>42975</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>30570</v>
+        <v>31378</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>48129</v>
+        <v>49038</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>33483</v>
+        <v>33044</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>44947</v>
+        <v>45354</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>34297</v>
+        <v>33178</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>43953</v>
+        <v>44196</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>24636</v>
+        <v>24573</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>28241</v>
+        <v>28274</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>24010</v>
+        <v>23908</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>35562</v>
+        <v>35868</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>36557</v>
+        <v>36351</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>68754</v>
+        <v>69281</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>52715</v>
+        <v>52652</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>74473</v>
+        <v>74885</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>56326</v>
+        <v>55510</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>41641</v>
+        <v>40974</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>11938</v>
+        <v>11705</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>19356</v>
+        <v>18891</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>23640</v>
+        <v>24377</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>30240</v>
+        <v>29917</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>15411</v>
+        <v>14845</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>22108</v>
+        <v>22008</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>26435</v>
+        <v>25585</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>78263</v>
+        <v>77191</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>31458</v>
+        <v>29875</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>46908</v>
+        <v>46891</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>53938</v>
+        <v>55525</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>64319</v>
+        <v>64808</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>27590</v>
+        <v>26531</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>37823</v>
+        <v>37877</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>43232</v>
+        <v>42995</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>48991</v>
+        <v>48573</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>30796</v>
+        <v>31712</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>38812</v>
+        <v>38692</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>43937</v>
+        <v>43683</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>108362</v>
+        <v>106111</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>54228</v>
+        <v>52574</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>70899</v>
+        <v>72008</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>80032</v>
+        <v>81762</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>121827</v>
+        <v>121875</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>69949</v>
+        <v>69579</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>79157</v>
+        <v>78512</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>77313</v>
+        <v>77852</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>76990</v>
+        <v>76631</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>73556</v>
+        <v>73293</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>75644</v>
+        <v>75519</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>99810</v>
+        <v>99845</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>207386</v>
+        <v>206265</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>152074</v>
+        <v>147109</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>162051</v>
+        <v>160687</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>185113</v>
+        <v>189857</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>161183</v>
+        <v>161933</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>102912</v>
+        <v>101717</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>113191</v>
+        <v>113134</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>119204</v>
+        <v>117718</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>105004</v>
+        <v>105090</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>104158</v>
+        <v>103450</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>104695</v>
+        <v>105459</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>131367</v>
+        <v>130090</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>256874</v>
+        <v>256657</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>195970</v>
+        <v>195065</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>208043</v>
+        <v>208125</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>236325</v>
+        <v>238409</v>
       </c>
     </row>
     <row r="24">
